--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -531,57 +531,57 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3">
-        <v>43438</v>
+        <v>42614</v>
       </c>
       <c r="K2" s="3">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="M2" s="4">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="N2" s="4">
-        <v>375.28</v>
+        <v>358.16</v>
       </c>
       <c r="O2" s="4">
-        <v>994.91</v>
+        <v>1621.87</v>
       </c>
       <c r="P2" s="4">
-        <v>582.95</v>
+        <v>623.95</v>
       </c>
       <c r="Q2" s="4">
-        <v>582.95</v>
+        <v>623.95</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>64.38%</t>
+          <t>57.40%</t>
         </is>
       </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>37.72%</t>
+          <t>22.08%</t>
         </is>
       </c>
       <c r="T2" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U2" s="3">
         <v>5</v>
       </c>
       <c r="V2" s="4">
-        <v>75.06</v>
+        <v>71.63</v>
       </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>1.68%</t>
         </is>
       </c>
       <c r="X2" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y2" s="3">
         <v>5</v>
@@ -625,27 +625,27 @@
         <v>149.99</v>
       </c>
       <c r="I3" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
-        <v>1510</v>
+        <v>1684</v>
       </c>
       <c r="K3" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="M3" s="4">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="N3" s="4">
-        <v>5.08</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
+        <v>6.98</v>
+      </c>
+      <c r="O3" s="4">
+        <v>149.99</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -660,13 +660,11 @@
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>4.65%</t>
+        </is>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
       </c>
       <c r="U3" s="3">
         <v>0</v>
@@ -682,7 +680,7 @@
         </is>
       </c>
       <c r="X3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
@@ -701,17 +699,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>MYYWELD Mini Welder Portable, Digital Display MWA-200 ARC Welding Machine,110V MMA Welder machine with Hot Start, Arc force, Anti-Stick, USB charging ports</t>
+          <t>Mig welder, MYYWELD 175A Flux Core/Solid Wire/Lift TIG/Stick 4 in 1 Welder 110V Gas Gasless Welding Machine, Synergic Control IGBT Inverter</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>B0D13XXKHV</t>
+          <t>B0CZNYBNTV</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>MN-HUTY-BLOE</t>
+          <t>DH-YJVX-P230</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -720,33 +718,33 @@
         </is>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>65.98999999999999</v>
+        <v>159.99</v>
       </c>
       <c r="I4" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3">
-        <v>1132</v>
+        <v>1259</v>
       </c>
       <c r="K4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="M4" s="4">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="N4" s="4">
-        <v>14.21</v>
-      </c>
-      <c r="O4" s="4">
-        <v>65.98999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -761,11 +759,13 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21.53%</t>
-        </is>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="U4" s="3">
         <v>0</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="X4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
@@ -800,17 +800,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Mig welder, MYYWELD 175A Flux Core/Solid Wire/Lift TIG/Stick 4 in 1 Welder 110V Gas Gasless Welding Machine, Synergic Control IGBT Inverter</t>
+          <t>MYYWELD Mini Welder Portable, Digital Display MWA-200 ARC Welding Machine,110V MMA Welder machine with Hot Start, Arc force, Anti-Stick, USB charging ports</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>B0CZNYBNTV</t>
+          <t>B0D13XXKHV</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>DH-YJVX-P230</t>
+          <t>MN-HUTY-BLOE</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -819,30 +819,30 @@
         </is>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>169.99</v>
+        <v>55.99</v>
       </c>
       <c r="I5" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3">
-        <v>4671</v>
+        <v>462</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="M5" s="4">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="N5" s="4">
-        <v>16.87</v>
+        <v>11.83</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
@@ -891,7 +891,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>MYYWELD-US</t>
+          <t>TTAMPLAR-US</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Mini Welder Machine Portable Upward LCD Display MWA-200L ARC Welding Machine,110V MMA Welder machine with Hot Start, Arc force, Anti-Stick MYYWELD</t>
+          <t>TTAMPLAR MIG Welder 110V 140AMP Flux Core Welder MMA/FLUX MIG/LIFT TIG - 3 IN 1 Gasless Welding Machine with LCD Display IGBT Inverter Welder TPM-140L</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>B0D6W3WCF1</t>
+          <t>B0CSFP3THQ</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>MWA-200L</t>
+          <t>HN-IN03-ARWA</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4">
-        <v>69.98999999999999</v>
+        <v>115.99</v>
       </c>
       <c r="I6" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3">
-        <v>3838</v>
+        <v>2950</v>
       </c>
       <c r="K6" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.68%</t>
         </is>
       </c>
       <c r="M6" s="4">
-        <v>1.35</v>
+        <v>0.83</v>
       </c>
       <c r="N6" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="O6" s="4">
+        <v>16.59</v>
+      </c>
+      <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3">
@@ -964,8 +964,10 @@
           <t>--</t>
         </is>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="U6" s="3">
         <v>0</v>
@@ -981,7 +983,7 @@
         </is>
       </c>
       <c r="X6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
@@ -1000,17 +1002,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR MIG Welder 110V 140AMP Flux Core Welder MMA/FLUX MIG/LIFT TIG - 3 IN 1 Gasless Welding Machine with LCD Display IGBT Inverter Welder TPM-140L</t>
+          <t>TTAMPLAR MIG Welder - 135AMP 110V&amp;220V Dual Voltage 4 in 1 Flux MIG/Solid Wire/Stick ARC/Lift TIG Gas/Gasless welding, IGBT Inverter Welding Machine TPM-135D</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>B0CSFP3THQ</t>
+          <t>B0B4JR35TV</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>HN-IN03-ARWA</t>
+          <t>ZF-KUQ6-BMPH</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1019,77 +1021,75 @@
         </is>
       </c>
       <c r="G7" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4">
-        <v>109.99</v>
+        <v>139.99</v>
       </c>
       <c r="I7" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J7" s="3">
-        <v>2437</v>
+        <v>4126</v>
       </c>
       <c r="K7" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="M7" s="4">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="N7" s="4">
-        <v>27.51</v>
+        <v>25.35</v>
       </c>
       <c r="O7" s="4">
-        <v>109.99</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
+        <v>419.97</v>
+      </c>
+      <c r="P7" s="4">
+        <v>139.99</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>139.99</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>有花费无销售额</t>
+          <t>18.11%</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>25.01%</t>
+          <t>6.04%</t>
         </is>
       </c>
       <c r="T7" s="3">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>有花费无订单</t>
-        </is>
+      <c r="V7" s="4">
+        <v>25.35</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4.00%</t>
         </is>
       </c>
       <c r="X7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="3">
         <v>1</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR-US</t>
+          <t>MYYWELD-US</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1099,17 +1099,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR 55Amp Plasma Cutter - Touch Arc Plasma Cutting Machine with 110V/220V Dual Volatage High Frequency IGBT Inverter</t>
+          <t>Mig welder, MYYWELD 140 MIG/Stick/Lift TIG 3 in 1 Welder 110V Gasless Flux Core Wire Welding Machine No Gas IGBT Inverter (MWM140)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>B0D6B66HKP</t>
+          <t>B0BKZFSMQQ</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>TPM-CUT55D</t>
+          <t>OI-1UEX-6PDA</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1118,75 +1118,75 @@
         </is>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4">
-        <v>145.99</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
-        <v>1861</v>
+        <v>6482</v>
       </c>
       <c r="K8" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="M8" s="4">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="N8" s="4">
-        <v>33.54</v>
+        <v>44.41</v>
       </c>
       <c r="O8" s="4">
-        <v>291.98</v>
+        <v>191.98</v>
       </c>
       <c r="P8" s="4">
-        <v>291.98</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="Q8" s="4">
-        <v>291.98</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>11.49%</t>
+          <t>46.27%</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>11.49%</t>
+          <t>23.13%</t>
         </is>
       </c>
       <c r="T8" s="3">
         <v>2</v>
       </c>
       <c r="U8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="4">
-        <v>16.77</v>
+        <v>44.41</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>6.06%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="X8" s="3">
         <v>2</v>
       </c>
       <c r="Y8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR-US</t>
+          <t>MYYWELD-US</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1196,17 +1196,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR MIG Welder - 135AMP 110V&amp;220V Dual Voltage 4 in 1 Flux MIG/Solid Wire/Stick ARC/Lift TIG Gas/Gasless welding, IGBT Inverter Welding Machine TPM-135D</t>
+          <t>Mini Welder Machine Portable Upward LCD Display MWA-200L ARC Welding Machine,110V MMA Welder machine with Hot Start, Arc force, Anti-Stick MYYWELD</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>B0B4JR35TV</t>
+          <t>B0D6W3WCF1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>ZF-KUQ6-BMPH</t>
+          <t>MWA-200L</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1215,33 +1215,33 @@
         </is>
       </c>
       <c r="G9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>139.99</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3">
-        <v>6658</v>
+        <v>6264</v>
       </c>
       <c r="K9" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="M9" s="4">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="N9" s="4">
-        <v>34.66</v>
+        <v>55.05</v>
       </c>
       <c r="O9" s="4">
-        <v>139.99</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>24.76%</t>
+          <t>--</t>
         </is>
       </c>
       <c r="T9" s="3">
@@ -1285,7 +1285,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>MYYWELD-US</t>
+          <t>TTAMPLAR-US</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Mig welder, MYYWELD 140 MIG/Stick/Lift TIG 3 in 1 Welder 110V Gasless Flux Core Wire Welding Machine No Gas IGBT Inverter (MWM140)</t>
+          <t>TTAMPLAR MIG Welder Gasless 140A 110V MIG/Stick/Lift TIG Welder 3 in 1 Flux Core Wire Welding Machine No Gas IGBT Inverter</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>B0BKZFSMQQ</t>
+          <t>B0BRKCHCC4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>OI-1UEX-6PDA</t>
+          <t>PF-JDV3-ZI5Z</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1314,33 +1314,33 @@
         </is>
       </c>
       <c r="G10" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4">
-        <v>95.98999999999999</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="I10" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3">
-        <v>6026</v>
+        <v>8835</v>
       </c>
       <c r="K10" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="M10" s="4">
-        <v>0.91</v>
+        <v>1.68</v>
       </c>
       <c r="N10" s="4">
-        <v>54.55</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="O10" s="4">
-        <v>95.98999999999999</v>
+        <v>275.97</v>
       </c>
       <c r="P10" s="4">
         <v>95.98999999999999</v>
@@ -1350,30 +1350,30 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>56.83%</t>
+          <t>97.94%</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>56.83%</t>
+          <t>34.07%</t>
         </is>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
       </c>
       <c r="V10" s="4">
-        <v>54.55</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.79%</t>
         </is>
       </c>
       <c r="X10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="3">
         <v>1</v>
@@ -1392,17 +1392,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>TTAMPLAR MIG Welder Gasless 140A 110V MIG/Stick/Lift TIG Welder 3 in 1 Flux Core Wire Welding Machine No Gas IGBT Inverter</t>
+          <t>TTAMPLAR 55Amp Plasma Cutter - Touch Arc Plasma Cutting Machine with 110V/220V Dual Volatage High Frequency IGBT Inverter</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>B0BRKCHCC4</t>
+          <t>B0D6B66HKP</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>PF-JDV3-ZI5Z</t>
+          <t>TPM-CUT55D</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1411,66 +1411,66 @@
         </is>
       </c>
       <c r="G11" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>95.98999999999999</v>
+        <v>145.99</v>
       </c>
       <c r="I11" s="3">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J11" s="3">
-        <v>15305</v>
+        <v>10552</v>
       </c>
       <c r="K11" s="3">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="M11" s="4">
-        <v>1.72</v>
+        <v>1.15</v>
       </c>
       <c r="N11" s="4">
-        <v>169.96</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="O11" s="4">
-        <v>290.97</v>
+        <v>583.96</v>
       </c>
       <c r="P11" s="4">
-        <v>194.98</v>
+        <v>291.98</v>
       </c>
       <c r="Q11" s="4">
-        <v>194.98</v>
+        <v>291.98</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>87.17%</t>
+          <t>33.00%</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>58.41%</t>
+          <t>16.50%</t>
         </is>
       </c>
       <c r="T11" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U11" s="3">
         <v>2</v>
       </c>
       <c r="V11" s="4">
-        <v>84.98</v>
+        <v>48.18</v>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>2.02%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="X11" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y11" s="3">
         <v>2</v>
